--- a/data/trans_orig/P1431-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1431-Edad-trans_orig.xlsx
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6625</v>
+        <v>5662</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.00416178428546547</v>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01458828359630958</v>
+        <v>0.01246673758145809</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6895</v>
+        <v>7353</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.004610342669507615</v>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0160252710492884</v>
+        <v>0.01708989359345386</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -784,19 +784,19 @@
         <v>3874</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9733</v>
+        <v>9450</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.004379998252387866</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001075531807195912</v>
+        <v>0.001076732824940222</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01100539629576346</v>
+        <v>0.01068593154015656</v>
       </c>
     </row>
     <row r="5">
@@ -813,7 +813,7 @@
         <v>452256</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>447521</v>
+        <v>448484</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>454146</v>
@@ -822,7 +822,7 @@
         <v>0.9958382157145346</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9854117164036904</v>
+        <v>0.9875332624185419</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -834,7 +834,7 @@
         <v>428246</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>423335</v>
+        <v>422877</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>430230</v>
@@ -843,7 +843,7 @@
         <v>0.9953896573304923</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9839747289507119</v>
+        <v>0.9829101064065473</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -855,19 +855,19 @@
         <v>880502</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>874643</v>
+        <v>874926</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>883425</v>
+        <v>883424</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9956200017476121</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9889946037042365</v>
+        <v>0.9893140684598435</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9989244681928041</v>
+        <v>0.9989232671750597</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>4183</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10617</v>
+        <v>10143</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.00608781529903916</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001507865096201935</v>
+        <v>0.001499120529827824</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01545261214802055</v>
+        <v>0.01476192975461393</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -980,19 +980,19 @@
         <v>3948</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1011</v>
+        <v>954</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9881</v>
+        <v>8952</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.006469672008277532</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.00165615003308531</v>
+        <v>0.001563543767542365</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01619101891301083</v>
+        <v>0.01466960247730442</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -1001,19 +1001,19 @@
         <v>8131</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3755</v>
+        <v>3090</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>15895</v>
+        <v>15017</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.006267436433323899</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.00289400164100173</v>
+        <v>0.002381919075313108</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01225182059654847</v>
+        <v>0.0115754200637045</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>682904</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>676470</v>
+        <v>676944</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>686051</v>
+        <v>686057</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9939121847009609</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9845473878519799</v>
+        <v>0.9852380702453862</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9984921349037981</v>
+        <v>0.9985008794701722</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>567</v>
@@ -1051,19 +1051,19 @@
         <v>606307</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>600374</v>
+        <v>601303</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>609244</v>
+        <v>609301</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9935303279917225</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9838089810869893</v>
+        <v>0.9853303975226956</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9983438499669147</v>
+        <v>0.9984364562324576</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1230</v>
@@ -1072,19 +1072,19 @@
         <v>1289211</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1281447</v>
+        <v>1282325</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1293587</v>
+        <v>1294252</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9937325635666761</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9877481794034515</v>
+        <v>0.9884245799362955</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9971059983589983</v>
+        <v>0.997618080924687</v>
       </c>
     </row>
     <row r="9">
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4810</v>
+        <v>5654</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.001388721473230135</v>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.007054416882623705</v>
+        <v>0.008291423993304179</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -1197,19 +1197,19 @@
         <v>4967</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1922</v>
+        <v>1939</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10028</v>
+        <v>10175</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.00700034402448957</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.002709333089859718</v>
+        <v>0.002732075959478882</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01413216723688919</v>
+        <v>0.01433998366075546</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -1218,19 +1218,19 @@
         <v>5914</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2009</v>
+        <v>2031</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>12901</v>
+        <v>12551</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.004250412762313642</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00144380780338318</v>
+        <v>0.001459428975558416</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.009271831442579835</v>
+        <v>0.009019932529127365</v>
       </c>
     </row>
     <row r="11">
@@ -1247,7 +1247,7 @@
         <v>680916</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>677053</v>
+        <v>676209</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>681863</v>
@@ -1256,7 +1256,7 @@
         <v>0.9986112785267699</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9929455831173762</v>
+        <v>0.9917085760066959</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1268,19 +1268,19 @@
         <v>704607</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>699546</v>
+        <v>699399</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>707652</v>
+        <v>707635</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9929996559755104</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9858678327631109</v>
+        <v>0.9856600163392446</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9972906669101402</v>
+        <v>0.9972679240405211</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1311</v>
@@ -1289,19 +1289,19 @@
         <v>1385523</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1378536</v>
+        <v>1378886</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1389428</v>
+        <v>1389406</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9957495872376864</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9907281685574203</v>
+        <v>0.9909800674708736</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9985561921966168</v>
+        <v>0.9985405710244416</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>5422</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2144</v>
+        <v>2085</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11871</v>
+        <v>12074</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.008822409805954574</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003489117846268987</v>
+        <v>0.003392631518234426</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01931390827243309</v>
+        <v>0.01964437933797839</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -1414,19 +1414,19 @@
         <v>7331</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3101</v>
+        <v>3040</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>14438</v>
+        <v>13707</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01193399484575459</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.005049004683532166</v>
+        <v>0.004949669078052841</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02350388898012419</v>
+        <v>0.02231401705723021</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>12</v>
@@ -1435,19 +1435,19 @@
         <v>12753</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>7296</v>
+        <v>6443</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>22470</v>
+        <v>21316</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01037775563668059</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.005936941386029106</v>
+        <v>0.005242907627601672</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01828497619156783</v>
+        <v>0.01734552509113672</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>609195</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>602746</v>
+        <v>602543</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>612473</v>
+        <v>612532</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9911775901940454</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.980686091727567</v>
+        <v>0.9803556206620214</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.996510882153731</v>
+        <v>0.9966073684817655</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>531</v>
@@ -1485,19 +1485,19 @@
         <v>606933</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>599826</v>
+        <v>600557</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>611163</v>
+        <v>611224</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9880660051542454</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9764961110198757</v>
+        <v>0.9776859829427688</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9949509953164678</v>
+        <v>0.9950503309219471</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1074</v>
@@ -1506,19 +1506,19 @@
         <v>1216127</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1206410</v>
+        <v>1207564</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1221584</v>
+        <v>1222437</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9896222443633195</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9817150238084325</v>
+        <v>0.9826544749088634</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9940630586139712</v>
+        <v>0.9947570923723983</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>8649</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4233</v>
+        <v>3918</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16782</v>
+        <v>16385</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02014109777905305</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009857436977219754</v>
+        <v>0.009123676816642341</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03908087967995351</v>
+        <v>0.03815562905224022</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -1631,19 +1631,19 @@
         <v>11176</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5520</v>
+        <v>5416</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>20013</v>
+        <v>20061</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02495834804174835</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01232690631577149</v>
+        <v>0.01209486972514225</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04469258365041345</v>
+        <v>0.04480011265515865</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>18</v>
@@ -1652,19 +1652,19 @@
         <v>19826</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>12050</v>
+        <v>12707</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>30048</v>
+        <v>30841</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02260016408249576</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01373662339463929</v>
+        <v>0.01448583277088415</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03425355698704018</v>
+        <v>0.03515748763820174</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>420780</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>412647</v>
+        <v>413044</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>425196</v>
+        <v>425511</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.979858902220947</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9609191203200466</v>
+        <v>0.9618443709477598</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9901425630227803</v>
+        <v>0.9908763231833576</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>396</v>
@@ -1702,19 +1702,19 @@
         <v>436624</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>427787</v>
+        <v>427739</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>442280</v>
+        <v>442384</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9750416519582517</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9553074163495863</v>
+        <v>0.9551998873448416</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9876730936842285</v>
+        <v>0.9879051302748578</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>781</v>
@@ -1723,19 +1723,19 @@
         <v>857403</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>847181</v>
+        <v>846388</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>865179</v>
+        <v>864522</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9773998359175042</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9657464430129599</v>
+        <v>0.9648425123617984</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9862633766053608</v>
+        <v>0.985514167229116</v>
       </c>
     </row>
     <row r="18">
@@ -1827,19 +1827,19 @@
         <v>7080</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3088</v>
+        <v>2988</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>13495</v>
+        <v>14007</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02285585136365458</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.009966905273456896</v>
+        <v>0.009644103649663999</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04356166069289449</v>
+        <v>0.0452161476640436</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>13</v>
@@ -1848,19 +1848,19 @@
         <v>12784</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7595</v>
+        <v>7146</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>21830</v>
+        <v>21663</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03611413351045563</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.021454985656332</v>
+        <v>0.02018641101560498</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06166770838247836</v>
+        <v>0.06119603840490194</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>20</v>
@@ -1869,19 +1869,19 @@
         <v>19865</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>12033</v>
+        <v>12495</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>29417</v>
+        <v>30463</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0299265124509264</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01812853084230008</v>
+        <v>0.01882328645337709</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04431678108901359</v>
+        <v>0.04589292412419497</v>
       </c>
     </row>
     <row r="20">
@@ -1898,19 +1898,19 @@
         <v>302706</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>296291</v>
+        <v>295779</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>306698</v>
+        <v>306798</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9771441486363455</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9564383393071054</v>
+        <v>0.9547838523359564</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9900330947265431</v>
+        <v>0.9903558963503359</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>331</v>
@@ -1919,19 +1919,19 @@
         <v>341212</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>332166</v>
+        <v>332333</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>346401</v>
+        <v>346850</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9638858664895443</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9383322916175215</v>
+        <v>0.938803961595098</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9785450143436679</v>
+        <v>0.9798135889843953</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>606</v>
@@ -1940,19 +1940,19 @@
         <v>643917</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>634365</v>
+        <v>633319</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>651749</v>
+        <v>651287</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9700734875490736</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9556832189109864</v>
+        <v>0.954107075875805</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9818714691577</v>
+        <v>0.9811767135466228</v>
       </c>
     </row>
     <row r="21">
@@ -2044,19 +2044,19 @@
         <v>12795</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>7234</v>
+        <v>6406</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>22238</v>
+        <v>22431</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05120858584900737</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02895293706011542</v>
+        <v>0.02564094460667299</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08900371110863867</v>
+        <v>0.08977898114973644</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -2065,19 +2065,19 @@
         <v>10812</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5370</v>
+        <v>5405</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>19382</v>
+        <v>19110</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.027874440954528</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01384505135349195</v>
+        <v>0.01393575471594705</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04996911636237127</v>
+        <v>0.04926883594360239</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>21</v>
@@ -2086,19 +2086,19 @@
         <v>23606</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>14891</v>
+        <v>15990</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>34570</v>
+        <v>36966</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03701645394946471</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02335017745404454</v>
+        <v>0.02507393314665818</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05420824956962564</v>
+        <v>0.05796537420355218</v>
       </c>
     </row>
     <row r="23">
@@ -2115,19 +2115,19 @@
         <v>237056</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>227613</v>
+        <v>227420</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>242617</v>
+        <v>243445</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9487914141509927</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9109962888913613</v>
+        <v>0.9102210188502631</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9710470629398845</v>
+        <v>0.974359055393327</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>339</v>
@@ -2136,19 +2136,19 @@
         <v>377058</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>368488</v>
+        <v>368760</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>382500</v>
+        <v>382465</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.972125559045472</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9500308836376287</v>
+        <v>0.9507311640563977</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9861549486465081</v>
+        <v>0.9860642452840529</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>550</v>
@@ -2157,19 +2157,19 @@
         <v>614115</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>603151</v>
+        <v>600755</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>622830</v>
+        <v>621731</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9629835460505353</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9457917504303746</v>
+        <v>0.9420346257964475</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9766498225459556</v>
+        <v>0.9749260668533416</v>
       </c>
     </row>
     <row r="24">
@@ -2261,19 +2261,19 @@
         <v>40966</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>30102</v>
+        <v>28981</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>55982</v>
+        <v>55757</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0119547680229006</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.00878426297118399</v>
+        <v>0.008457175238879937</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01633662174423957</v>
+        <v>0.01627103143009564</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>51</v>
@@ -2282,19 +2282,19 @@
         <v>53002</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>40169</v>
+        <v>39613</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>69261</v>
+        <v>69235</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01491332989288517</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01130261799665063</v>
+        <v>0.01114603551627663</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01948837145255604</v>
+        <v>0.01948089861811313</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>89</v>
@@ -2303,19 +2303,19 @@
         <v>93968</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>76253</v>
+        <v>77110</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>115940</v>
+        <v>114893</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01346100598722568</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01092330959690509</v>
+        <v>0.01104602755535382</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01660850358912068</v>
+        <v>0.01645849259779075</v>
       </c>
     </row>
     <row r="26">
@@ -2332,19 +2332,19 @@
         <v>3385813</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3370797</v>
+        <v>3371022</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3396677</v>
+        <v>3397798</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9880452319770994</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9836633782557604</v>
+        <v>0.9837289685699042</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.991215737028816</v>
+        <v>0.99154282476112</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3244</v>
@@ -2353,19 +2353,19 @@
         <v>3500988</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3484729</v>
+        <v>3484755</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3513821</v>
+        <v>3514377</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9850866701071148</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.980511628547444</v>
+        <v>0.9805191013818869</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9886973820033493</v>
+        <v>0.9888539644837234</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6415</v>
@@ -2374,19 +2374,19 @@
         <v>6886801</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6864829</v>
+        <v>6865876</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6904516</v>
+        <v>6903659</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9865389940127743</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9833914964108793</v>
+        <v>0.983541507402209</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9890766904030949</v>
+        <v>0.9889539724446462</v>
       </c>
     </row>
     <row r="27">
@@ -2737,7 +2737,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5678</v>
+        <v>4694</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002389551153632433</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0143479880790004</v>
+        <v>0.01185963746882217</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4744</v>
+        <v>4747</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001160029369046534</v>
@@ -2767,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.005819211545297556</v>
+        <v>0.005823039782972246</v>
       </c>
     </row>
     <row r="5">
@@ -2797,7 +2797,7 @@
         <v>394809</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>390077</v>
+        <v>391061</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>395755</v>
@@ -2806,7 +2806,7 @@
         <v>0.9976104488463675</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9856520119209996</v>
+        <v>0.9881403625311779</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -2818,7 +2818,7 @@
         <v>814272</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>810474</v>
+        <v>810471</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>815218</v>
@@ -2827,7 +2827,7 @@
         <v>0.9988399706309534</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9941807884547025</v>
+        <v>0.9941769602170277</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -2922,19 +2922,19 @@
         <v>3478</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10415</v>
+        <v>10724</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005889181048970325</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001607176427092663</v>
+        <v>0.001608515885126359</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01763834078350778</v>
+        <v>0.01816157467351335</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -2956,19 +2956,19 @@
         <v>3478</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>10436</v>
+        <v>10893</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.00301336137336379</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0008213246850326122</v>
+        <v>0.0008242603529083674</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.009043248932176357</v>
+        <v>0.009438961201806673</v>
       </c>
     </row>
     <row r="8">
@@ -2985,19 +2985,19 @@
         <v>587018</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>580081</v>
+        <v>579772</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>589547</v>
+        <v>589546</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9941108189510297</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9823616592164923</v>
+        <v>0.9818384253264862</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9983928235729074</v>
+        <v>0.9983914841148737</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>579</v>
@@ -3019,19 +3019,19 @@
         <v>1150562</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1143604</v>
+        <v>1143147</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1153092</v>
+        <v>1153089</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9969866386266362</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9909567510678239</v>
+        <v>0.9905610387981933</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9991786753149674</v>
+        <v>0.9991757396470916</v>
       </c>
     </row>
     <row r="9">
@@ -3123,19 +3123,19 @@
         <v>6877</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2914</v>
+        <v>2899</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13751</v>
+        <v>13607</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01027753748152826</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004355487634580763</v>
+        <v>0.004332172494304933</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02055197557141092</v>
+        <v>0.02033683483619172</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -3147,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7064</v>
+        <v>7060</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0030491190248862</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01068123018493427</v>
+        <v>0.01067431067958644</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -3165,19 +3165,19 @@
         <v>8893</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4865</v>
+        <v>4808</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>15787</v>
+        <v>17281</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.006684273308081428</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.003656933498902318</v>
+        <v>0.003614048157109965</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01186597175562032</v>
+        <v>0.01298885247167927</v>
       </c>
     </row>
     <row r="11">
@@ -3194,19 +3194,19 @@
         <v>662220</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>655346</v>
+        <v>655490</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>666183</v>
+        <v>666198</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9897224625184717</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9794480244285894</v>
+        <v>0.9796631651638091</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9956445123654193</v>
+        <v>0.995667827505695</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>663</v>
@@ -3215,7 +3215,7 @@
         <v>659369</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>654322</v>
+        <v>654326</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>661386</v>
@@ -3224,7 +3224,7 @@
         <v>0.9969508809751138</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9893187698150657</v>
+        <v>0.9893256893204135</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -3236,19 +3236,19 @@
         <v>1321590</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1314696</v>
+        <v>1313202</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1325618</v>
+        <v>1325675</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9933157266919186</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9881340282443798</v>
+        <v>0.9870111475283206</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9963430665010977</v>
+        <v>0.99638595184289</v>
       </c>
     </row>
     <row r="12">
@@ -3340,19 +3340,19 @@
         <v>9337</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4208</v>
+        <v>4312</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17765</v>
+        <v>17553</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01445245315036867</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.006513642232561355</v>
+        <v>0.006675185305099473</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02749811185772799</v>
+        <v>0.02716973291965805</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -3361,19 +3361,19 @@
         <v>7384</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3136</v>
+        <v>3135</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>15671</v>
+        <v>13976</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01137676885355915</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.004831089558544406</v>
+        <v>0.004830272152160727</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02414426658047272</v>
+        <v>0.02153179168292452</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>16</v>
@@ -3382,19 +3382,19 @@
         <v>16721</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>9473</v>
+        <v>10139</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>25903</v>
+        <v>26190</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01291101476941251</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.007314199258024127</v>
+        <v>0.007828402450220928</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02000027252979603</v>
+        <v>0.02022165224796639</v>
       </c>
     </row>
     <row r="14">
@@ -3411,19 +3411,19 @@
         <v>636711</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>628283</v>
+        <v>628495</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>641840</v>
+        <v>641736</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9855475468496313</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9725018881422725</v>
+        <v>0.9728302670803419</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9934863577674387</v>
+        <v>0.9933248146949005</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>595</v>
@@ -3432,19 +3432,19 @@
         <v>641693</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>633406</v>
+        <v>635101</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>645941</v>
+        <v>645942</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9886232311464408</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9758557334195272</v>
+        <v>0.9784682083170755</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9951689104414556</v>
+        <v>0.9951697278478393</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1168</v>
@@ -3453,19 +3453,19 @@
         <v>1278404</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1269222</v>
+        <v>1268935</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1285652</v>
+        <v>1284986</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9870889852305875</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9799997274702039</v>
+        <v>0.9797783477520335</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9926858007419759</v>
+        <v>0.992171597549779</v>
       </c>
     </row>
     <row r="15">
@@ -3557,19 +3557,19 @@
         <v>11141</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5509</v>
+        <v>5664</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19140</v>
+        <v>20307</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02331237937829965</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01152695832597595</v>
+        <v>0.01185105627016477</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0400485638532706</v>
+        <v>0.04249143565466394</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -3578,19 +3578,19 @@
         <v>13261</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6665</v>
+        <v>6749</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>22297</v>
+        <v>21755</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02669100741549524</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01341493964552823</v>
+        <v>0.01358431458186063</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04487583916941056</v>
+        <v>0.04378557308202157</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>22</v>
@@ -3599,19 +3599,19 @@
         <v>24403</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>15368</v>
+        <v>16366</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>35975</v>
+        <v>36328</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02503450165632274</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01576632473162291</v>
+        <v>0.01678981264053091</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03690595615581824</v>
+        <v>0.03726831658401172</v>
       </c>
     </row>
     <row r="17">
@@ -3628,19 +3628,19 @@
         <v>466777</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>458778</v>
+        <v>457611</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>472409</v>
+        <v>472254</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9766876206217003</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9599514361467295</v>
+        <v>0.9575085643453364</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9884730416740241</v>
+        <v>0.9881489437298353</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>421</v>
@@ -3649,19 +3649,19 @@
         <v>483588</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>474552</v>
+        <v>475094</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>490184</v>
+        <v>490100</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9733089925845048</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9551241608305894</v>
+        <v>0.9562144269179783</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9865850603544718</v>
+        <v>0.9864156854181393</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>835</v>
@@ -3670,19 +3670,19 @@
         <v>950364</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>938792</v>
+        <v>938439</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>959399</v>
+        <v>958401</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9749654983436773</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9630940438441817</v>
+        <v>0.9627316834159882</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9842336752683771</v>
+        <v>0.9832101873594691</v>
       </c>
     </row>
     <row r="18">
@@ -3774,19 +3774,19 @@
         <v>8827</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4070</v>
+        <v>4825</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>15854</v>
+        <v>15977</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0264013619779813</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01217439770776215</v>
+        <v>0.01443238701258706</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04741994421213334</v>
+        <v>0.04778737956804376</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>13</v>
@@ -3795,19 +3795,19 @@
         <v>13134</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7970</v>
+        <v>7034</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>21490</v>
+        <v>21214</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03476818396751387</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02109738622012103</v>
+        <v>0.01861980058168872</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05688689717986011</v>
+        <v>0.05615812062128632</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>22</v>
@@ -3816,19 +3816,19 @@
         <v>21961</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>14319</v>
+        <v>14033</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>32871</v>
+        <v>31683</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03083992809425169</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02010869318448009</v>
+        <v>0.0197070911250686</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04616143479178558</v>
+        <v>0.04449354611293196</v>
       </c>
     </row>
     <row r="20">
@@ -3845,19 +3845,19 @@
         <v>325503</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>318476</v>
+        <v>318353</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>330260</v>
+        <v>329505</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9735986380220187</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9525800557878671</v>
+        <v>0.9522126204319574</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9878256022922381</v>
+        <v>0.985567612987413</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>341</v>
@@ -3866,19 +3866,19 @@
         <v>364628</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>356272</v>
+        <v>356548</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>369792</v>
+        <v>370728</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9652318160324861</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9431131028201404</v>
+        <v>0.9438418793787134</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.978902613779879</v>
+        <v>0.9813801994183112</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>657</v>
@@ -3887,19 +3887,19 @@
         <v>690131</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>679221</v>
+        <v>680409</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>697773</v>
+        <v>698059</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9691600719057483</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9538385652082141</v>
+        <v>0.955506453887068</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9798913068155186</v>
+        <v>0.9802929088749315</v>
       </c>
     </row>
     <row r="21">
@@ -3991,19 +3991,19 @@
         <v>5812</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2525</v>
+        <v>2505</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>11782</v>
+        <v>11826</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02261643306359993</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.009826822162924945</v>
+        <v>0.009748500396294508</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04584598822973465</v>
+        <v>0.04601714638096089</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>16</v>
@@ -4012,19 +4012,19 @@
         <v>20084</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>12260</v>
+        <v>11284</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>33223</v>
+        <v>31470</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05018837108103585</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03063608005845405</v>
+        <v>0.02819865466439674</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08302172122460143</v>
+        <v>0.07864115341958082</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>23</v>
@@ -4033,19 +4033,19 @@
         <v>25896</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>17345</v>
+        <v>18019</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>39485</v>
+        <v>38956</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03940582577577105</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02639336560909804</v>
+        <v>0.02741975667314016</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06008435347950129</v>
+        <v>0.05927851155831448</v>
       </c>
     </row>
     <row r="23">
@@ -4062,19 +4062,19 @@
         <v>251186</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>245216</v>
+        <v>245172</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>254473</v>
+        <v>254493</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9773835669364001</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9541540117702655</v>
+        <v>0.9539828536190399</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.990173177837075</v>
+        <v>0.9902514996037055</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>285</v>
@@ -4083,19 +4083,19 @@
         <v>380085</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>366946</v>
+        <v>368699</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>387909</v>
+        <v>388885</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9498116289189642</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9169782787753988</v>
+        <v>0.9213588465804196</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.969363919941546</v>
+        <v>0.9718013453356033</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>580</v>
@@ -4104,19 +4104,19 @@
         <v>631271</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>617682</v>
+        <v>618211</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>639822</v>
+        <v>639148</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.960594174224229</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9399156465204987</v>
+        <v>0.9407214884416856</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.973606634390902</v>
+        <v>0.9725802433268599</v>
       </c>
     </row>
     <row r="24">
@@ -4208,19 +4208,19 @@
         <v>45472</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>33732</v>
+        <v>33377</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>60813</v>
+        <v>59623</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01339630138834069</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.009937575783645087</v>
+        <v>0.009833096679855323</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01791608973182475</v>
+        <v>0.01756527888694</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>51</v>
@@ -4229,19 +4229,19 @@
         <v>56826</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>42442</v>
+        <v>42703</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>74647</v>
+        <v>74681</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01603198674479395</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01197402210086721</v>
+        <v>0.01204760113647586</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02105977720290897</v>
+        <v>0.02106918809075865</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>96</v>
@@ -4250,19 +4250,19 @@
         <v>102298</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>82074</v>
+        <v>83789</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>121979</v>
+        <v>126312</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01474266864430109</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0118280687226555</v>
+        <v>0.01207521522021723</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01757903912709775</v>
+        <v>0.01820344553100368</v>
       </c>
     </row>
     <row r="26">
@@ -4279,19 +4279,19 @@
         <v>3348878</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3333537</v>
+        <v>3334727</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3360618</v>
+        <v>3360973</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9866036986116593</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9820839102681754</v>
+        <v>0.9824347211130602</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9900624242163549</v>
+        <v>0.9901669033201447</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3287</v>
@@ -4300,19 +4300,19 @@
         <v>3487716</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3469895</v>
+        <v>3469861</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3502100</v>
+        <v>3501839</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.983968013255206</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9789402227970909</v>
+        <v>0.9789308119092414</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9880259778991328</v>
+        <v>0.9879523988635239</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6473</v>
@@ -4321,19 +4321,19 @@
         <v>6836594</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6816913</v>
+        <v>6812580</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6856818</v>
+        <v>6855103</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9852573313556989</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9824209608729022</v>
+        <v>0.9817965544689966</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9881719312773445</v>
+        <v>0.9879247847797831</v>
       </c>
     </row>
     <row r="27">
